--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Lgi3-Adam23.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Lgi3-Adam23.xlsx
@@ -543,40 +543,40 @@
         <v>1.850333</v>
       </c>
       <c r="I2">
-        <v>0.7836323164322263</v>
+        <v>0.9179281773574478</v>
       </c>
       <c r="J2">
-        <v>0.7836323164322262</v>
+        <v>0.9179281773574478</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.269164</v>
+        <v>0.2189473333333334</v>
       </c>
       <c r="N2">
-        <v>0.8074920000000001</v>
+        <v>0.656842</v>
       </c>
       <c r="O2">
-        <v>0.01089095165781685</v>
+        <v>0.009402596261870986</v>
       </c>
       <c r="P2">
-        <v>0.01089095165781685</v>
+        <v>0.009402596261870984</v>
       </c>
       <c r="Q2">
-        <v>0.1660143438706667</v>
+        <v>0.1350418253762222</v>
       </c>
       <c r="R2">
-        <v>1.494129094836</v>
+        <v>1.215376428386</v>
       </c>
       <c r="S2">
-        <v>0.008534501675766417</v>
+        <v>0.008630908049087185</v>
       </c>
       <c r="T2">
-        <v>0.008534501675766415</v>
+        <v>0.008630908049087185</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,10 +605,10 @@
         <v>1.850333</v>
       </c>
       <c r="I3">
-        <v>0.7836323164322263</v>
+        <v>0.9179281773574478</v>
       </c>
       <c r="J3">
-        <v>0.7836323164322262</v>
+        <v>0.9179281773574478</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,10 +623,10 @@
         <v>60.237349</v>
       </c>
       <c r="O3">
-        <v>0.8124440315867432</v>
+        <v>0.8622887582286424</v>
       </c>
       <c r="P3">
-        <v>0.8124440315867431</v>
+        <v>0.8622887582286423</v>
       </c>
       <c r="Q3">
         <v>12.38435052080189</v>
@@ -635,10 +635,10 @@
         <v>111.459154687217</v>
       </c>
       <c r="S3">
-        <v>0.6366573984438564</v>
+        <v>0.7915191481966347</v>
       </c>
       <c r="T3">
-        <v>0.6366573984438562</v>
+        <v>0.7915191481966346</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,10 +667,10 @@
         <v>1.850333</v>
       </c>
       <c r="I4">
-        <v>0.7836323164322263</v>
+        <v>0.9179281773574478</v>
       </c>
       <c r="J4">
-        <v>0.7836323164322262</v>
+        <v>0.9179281773574478</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.191587666666667</v>
+        <v>2.823530666666667</v>
       </c>
       <c r="N4">
-        <v>12.574763</v>
+        <v>8.470592</v>
       </c>
       <c r="O4">
-        <v>0.1696006102122424</v>
+        <v>0.1212552739852724</v>
       </c>
       <c r="P4">
-        <v>0.1696006102122424</v>
+        <v>0.1212552739852723</v>
       </c>
       <c r="Q4">
-        <v>2.585277660675445</v>
+        <v>1.741490656348444</v>
       </c>
       <c r="R4">
-        <v>23.267498946079</v>
+        <v>15.673415907136</v>
       </c>
       <c r="S4">
-        <v>0.1329045190489386</v>
+        <v>0.111303632644279</v>
       </c>
       <c r="T4">
-        <v>0.1329045190489386</v>
+        <v>0.111303632644279</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>1.850333</v>
       </c>
       <c r="I5">
-        <v>0.7836323164322263</v>
+        <v>0.9179281773574478</v>
       </c>
       <c r="J5">
-        <v>0.7836323164322262</v>
+        <v>0.9179281773574478</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.174593</v>
+        <v>0.1642436666666667</v>
       </c>
       <c r="N5">
-        <v>0.523779</v>
+        <v>0.492731</v>
       </c>
       <c r="O5">
-        <v>0.007064406543197522</v>
+        <v>0.007053371524214274</v>
       </c>
       <c r="P5">
-        <v>0.007064406543197521</v>
+        <v>0.007053371524214274</v>
       </c>
       <c r="Q5">
-        <v>0.1076850631563333</v>
+        <v>0.1013018254914445</v>
       </c>
       <c r="R5">
-        <v>0.969165568407</v>
+        <v>0.911716429423</v>
       </c>
       <c r="S5">
-        <v>0.005535897263664851</v>
+        <v>0.006474488467446931</v>
       </c>
       <c r="T5">
-        <v>0.005535897263664849</v>
+        <v>0.006474488467446931</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.1702976666666667</v>
+        <v>0.055146</v>
       </c>
       <c r="H6">
-        <v>0.510893</v>
+        <v>0.165438</v>
       </c>
       <c r="I6">
-        <v>0.2163676835677737</v>
+        <v>0.08207182264255215</v>
       </c>
       <c r="J6">
-        <v>0.2163676835677737</v>
+        <v>0.08207182264255215</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.269164</v>
+        <v>0.2189473333333334</v>
       </c>
       <c r="N6">
-        <v>0.8074920000000001</v>
+        <v>0.656842</v>
       </c>
       <c r="O6">
-        <v>0.01089095165781685</v>
+        <v>0.009402596261870986</v>
       </c>
       <c r="P6">
-        <v>0.01089095165781685</v>
+        <v>0.009402596261870984</v>
       </c>
       <c r="Q6">
-        <v>0.04583800115066667</v>
+        <v>0.012074069644</v>
       </c>
       <c r="R6">
-        <v>0.4125420103560001</v>
+        <v>0.108666626796</v>
       </c>
       <c r="S6">
-        <v>0.002356449982050438</v>
+        <v>0.0007716882127837995</v>
       </c>
       <c r="T6">
-        <v>0.002356449982050438</v>
+        <v>0.0007716882127837992</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,22 +841,22 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.1702976666666667</v>
+        <v>0.055146</v>
       </c>
       <c r="H7">
-        <v>0.510893</v>
+        <v>0.165438</v>
       </c>
       <c r="I7">
-        <v>0.2163676835677737</v>
+        <v>0.08207182264255215</v>
       </c>
       <c r="J7">
-        <v>0.2163676835677737</v>
+        <v>0.08207182264255215</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>60.237349</v>
       </c>
       <c r="O7">
-        <v>0.8124440315867432</v>
+        <v>0.8622887582286424</v>
       </c>
       <c r="P7">
-        <v>0.8124440315867431</v>
+        <v>0.8622887582286423</v>
       </c>
       <c r="Q7">
-        <v>3.419426660295223</v>
+        <v>1.107282949318</v>
       </c>
       <c r="R7">
-        <v>30.774839942657</v>
+        <v>9.965546543862001</v>
       </c>
       <c r="S7">
-        <v>0.1757866331428868</v>
+        <v>0.07076961003200767</v>
       </c>
       <c r="T7">
-        <v>0.1757866331428868</v>
+        <v>0.07076961003200766</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,22 +903,22 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.1702976666666667</v>
+        <v>0.055146</v>
       </c>
       <c r="H8">
-        <v>0.510893</v>
+        <v>0.165438</v>
       </c>
       <c r="I8">
-        <v>0.2163676835677737</v>
+        <v>0.08207182264255215</v>
       </c>
       <c r="J8">
-        <v>0.2163676835677737</v>
+        <v>0.08207182264255215</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.191587666666667</v>
+        <v>2.823530666666667</v>
       </c>
       <c r="N8">
-        <v>12.574763</v>
+        <v>8.470592</v>
       </c>
       <c r="O8">
-        <v>0.1696006102122424</v>
+        <v>0.1212552739852724</v>
       </c>
       <c r="P8">
-        <v>0.1696006102122424</v>
+        <v>0.1212552739852723</v>
       </c>
       <c r="Q8">
-        <v>0.7138175992621112</v>
+        <v>0.155706422144</v>
       </c>
       <c r="R8">
-        <v>6.424358393359001</v>
+        <v>1.401357799296</v>
       </c>
       <c r="S8">
-        <v>0.03669609116330379</v>
+        <v>0.009951641340993342</v>
       </c>
       <c r="T8">
-        <v>0.03669609116330379</v>
+        <v>0.00995164134099334</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,22 +965,22 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.1702976666666667</v>
+        <v>0.055146</v>
       </c>
       <c r="H9">
-        <v>0.510893</v>
+        <v>0.165438</v>
       </c>
       <c r="I9">
-        <v>0.2163676835677737</v>
+        <v>0.08207182264255215</v>
       </c>
       <c r="J9">
-        <v>0.2163676835677737</v>
+        <v>0.08207182264255215</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.174593</v>
+        <v>0.1642436666666667</v>
       </c>
       <c r="N9">
-        <v>0.523779</v>
+        <v>0.492731</v>
       </c>
       <c r="O9">
-        <v>0.007064406543197522</v>
+        <v>0.007053371524214274</v>
       </c>
       <c r="P9">
-        <v>0.007064406543197521</v>
+        <v>0.007053371524214274</v>
       </c>
       <c r="Q9">
-        <v>0.02973278051633333</v>
+        <v>0.009057381242000001</v>
       </c>
       <c r="R9">
-        <v>0.267595024647</v>
+        <v>0.081516431178</v>
       </c>
       <c r="S9">
-        <v>0.001528509279532671</v>
+        <v>0.0005788830567673416</v>
       </c>
       <c r="T9">
-        <v>0.001528509279532671</v>
+        <v>0.0005788830567673416</v>
       </c>
     </row>
   </sheetData>
